--- a/biology/Botanique/Mammillaria_bocasana/Mammillaria_bocasana.xlsx
+++ b/biology/Botanique/Mammillaria_bocasana/Mammillaria_bocasana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammillaria bocasana ou le « Mamillaire de Bocas »[2] est est une espèce de cactus de la sous-famille des Cactoideae. Il est souvent vendu comme un cactus "houppette"[3], et aussi comme "Powder Puff Pincushion." (coussin à poudre à épingles)[4] La plante est protégée contre la cueillette dans la nature au Mexique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria bocasana ou le « Mamillaire de Bocas » est est une espèce de cactus de la sous-famille des Cactoideae. Il est souvent vendu comme un cactus "houppette", et aussi comme "Powder Puff Pincushion." (coussin à poudre à épingles) La plante est protégée contre la cueillette dans la nature au Mexique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son habitat naturel du centre-nord du Mexique, on le trouve entre 1 650 et 2 300 mètres au-dessus du niveau de la mer[4]. Il pousse sur les parois des canyons, dans la roche volcanique et dans les environs semi-désertiques, souvent sous des buissons de plantes locales[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son habitat naturel du centre-nord du Mexique, on le trouve entre 1 650 et 2 300 mètres au-dessus du niveau de la mer. Il pousse sur les parois des canyons, dans la roche volcanique et dans les environs semi-désertiques, souvent sous des buissons de plantes locales.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammillaria bocasana est un cactus globulaire hémisphérique qui forme des colonies de couleur blanchâtre[2]. Ses "épines blanches ressemblent à des cheveux" qui recouvrent ses épines centrales radiales et crochues[3]. Au printemps et en été, il porte plusieurs fleurs de couleur crème ou rose[5]. Plus tard, Mammillaria bocasana forme un fruit cylindrique rouge qui contient des graines brun rougeâtre qui présentent un hile partiellement latéral[6]. Sa forme peut être variable, avec de nombreuses variétés ou sous-espèces différentes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria bocasana est un cactus globulaire hémisphérique qui forme des colonies de couleur blanchâtre. Ses "épines blanches ressemblent à des cheveux" qui recouvrent ses épines centrales radiales et crochues. Au printemps et en été, il porte plusieurs fleurs de couleur crème ou rose. Plus tard, Mammillaria bocasana forme un fruit cylindrique rouge qui contient des graines brun rougeâtre qui présentent un hile partiellement latéral. Sa forme peut être variable, avec de nombreuses variétés ou sous-espèces différentes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mammillaria bocasana  se multiplier à partir de graines. Il peut tolérer des températures de -7 degrés Celsius pendant de courtes périodes[3]. Il a remporté le Award of Garden Merit de la Royal Horticultural Society[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mammillaria bocasana  se multiplier à partir de graines. Il peut tolérer des températures de -7 degrés Celsius pendant de courtes périodes. Il a remporté le Award of Garden Merit de la Royal Horticultural Society.
 Sur les autres projets Wikimedia :
 Mammillaria bocasana, sur Wikimedia CommonsMammillaria bocasana, sur Wikispecies
 </t>
